--- a/Descargas/R15_Juzgado De Letras Y Garantia De Taltal_Garantia_Terminos Por Rol_2018-Mayo.xlsx
+++ b/Descargas/R15_Juzgado De Letras Y Garantia De Taltal_Garantia_Terminos Por Rol_2018-Mayo.xlsx
@@ -242,7 +242,7 @@
         </is>
       </c>
       <c r="C3" s="65">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4">
@@ -257,7 +257,7 @@
         </is>
       </c>
       <c r="C4" s="65">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -287,7 +287,7 @@
         </is>
       </c>
       <c r="C6" s="65">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -302,7 +302,7 @@
         </is>
       </c>
       <c r="C7" s="65">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -317,7 +317,7 @@
         </is>
       </c>
       <c r="C8" s="65">
-        <v>25</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9">
@@ -328,11 +328,26 @@
       </c>
       <c t="inlineStr" r="B9">
         <is>
+          <t xml:space="preserve">No Perseverar En El Procedimiento.</t>
+        </is>
+      </c>
+      <c r="C9" s="65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c t="inlineStr" r="A10">
+        <is>
+          <t xml:space="preserve">Juzgado De Letras Y Garantía De Taltal.</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="B10">
+        <is>
           <t xml:space="preserve">Sentencia.</t>
         </is>
       </c>
-      <c r="C9" s="65">
-        <v>2</v>
+      <c r="C10" s="65">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
